--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Slitrk6-Ptprs.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Slitrk6-Ptprs.xlsx
@@ -531,52 +531,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.66982859773112</v>
+        <v>2.673822</v>
       </c>
       <c r="H2">
-        <v>2.66982859773112</v>
+        <v>8.021466</v>
       </c>
       <c r="I2">
-        <v>0.8260410857729068</v>
+        <v>0.8002273347603108</v>
       </c>
       <c r="J2">
-        <v>0.8260410857729068</v>
+        <v>0.8002273347603108</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.39991412827579</v>
+        <v>3.847811666666666</v>
       </c>
       <c r="N2">
-        <v>3.39991412827579</v>
+        <v>11.543435</v>
       </c>
       <c r="O2">
-        <v>0.03555949751607509</v>
+        <v>0.0396810199351781</v>
       </c>
       <c r="P2">
-        <v>0.03555949751607509</v>
+        <v>0.03968101993517809</v>
       </c>
       <c r="Q2">
-        <v>9.077187969500775</v>
+        <v>10.28836348619</v>
       </c>
       <c r="R2">
-        <v>9.077187969500775</v>
+        <v>92.59527137571</v>
       </c>
       <c r="S2">
-        <v>0.02937360593771765</v>
+        <v>0.03175383682329833</v>
       </c>
       <c r="T2">
-        <v>0.02937360593771765</v>
+        <v>0.03175383682329833</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.66982859773112</v>
+        <v>2.673822</v>
       </c>
       <c r="H3">
-        <v>2.66982859773112</v>
+        <v>8.021466</v>
       </c>
       <c r="I3">
-        <v>0.8260410857729068</v>
+        <v>0.8002273347603108</v>
       </c>
       <c r="J3">
-        <v>0.8260410857729068</v>
+        <v>0.8002273347603108</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>57.666760962694</v>
+        <v>57.80210733333333</v>
       </c>
       <c r="N3">
-        <v>57.666760962694</v>
+        <v>173.406322</v>
       </c>
       <c r="O3">
-        <v>0.603133186852852</v>
+        <v>0.5960911739155557</v>
       </c>
       <c r="P3">
-        <v>0.603133186852852</v>
+        <v>0.5960911739155557</v>
       </c>
       <c r="Q3">
-        <v>153.960367556725</v>
+        <v>154.552546234228</v>
       </c>
       <c r="R3">
-        <v>153.960367556725</v>
+        <v>1390.972916108052</v>
       </c>
       <c r="S3">
-        <v>0.4982127925336033</v>
+        <v>0.47700845137659</v>
       </c>
       <c r="T3">
-        <v>0.4982127925336033</v>
+        <v>0.47700845137659</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.66982859773112</v>
+        <v>2.673822</v>
       </c>
       <c r="H4">
-        <v>2.66982859773112</v>
+        <v>8.021466</v>
       </c>
       <c r="I4">
-        <v>0.8260410857729068</v>
+        <v>0.8002273347603108</v>
       </c>
       <c r="J4">
-        <v>0.8260410857729068</v>
+        <v>0.8002273347603108</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.8283288869428</v>
+        <v>6.066157</v>
       </c>
       <c r="N4">
-        <v>5.8283288869428</v>
+        <v>18.198471</v>
       </c>
       <c r="O4">
-        <v>0.06095814151730233</v>
+        <v>0.06255797260873913</v>
       </c>
       <c r="P4">
-        <v>0.06095814151730233</v>
+        <v>0.06255797260873913</v>
       </c>
       <c r="Q4">
-        <v>15.56063913934227</v>
+        <v>16.219824042054</v>
       </c>
       <c r="R4">
-        <v>15.56063913934227</v>
+        <v>145.978416378486</v>
       </c>
       <c r="S4">
-        <v>0.05035392940565093</v>
+        <v>0.05006059968869984</v>
       </c>
       <c r="T4">
-        <v>0.05035392940565093</v>
+        <v>0.05006059968869984</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.66982859773112</v>
+        <v>2.673822</v>
       </c>
       <c r="H5">
-        <v>2.66982859773112</v>
+        <v>8.021466</v>
       </c>
       <c r="I5">
-        <v>0.8260410857729068</v>
+        <v>0.8002273347603108</v>
       </c>
       <c r="J5">
-        <v>0.8260410857729068</v>
+        <v>0.8002273347603108</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.7169806047947</v>
+        <v>29.25249166666667</v>
       </c>
       <c r="N5">
-        <v>28.7169806047947</v>
+        <v>87.757475</v>
       </c>
       <c r="O5">
-        <v>0.3003491741137705</v>
+        <v>0.3016698335405271</v>
       </c>
       <c r="P5">
-        <v>0.3003491741137705</v>
+        <v>0.301669833540527</v>
       </c>
       <c r="Q5">
-        <v>76.6694160591708</v>
+        <v>78.21595577315</v>
       </c>
       <c r="R5">
-        <v>76.6694160591708</v>
+        <v>703.94360195835</v>
       </c>
       <c r="S5">
-        <v>0.2481007578959349</v>
+        <v>0.2414044468717226</v>
       </c>
       <c r="T5">
-        <v>0.2481007578959349</v>
+        <v>0.2414044468717226</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.562248648442447</v>
+        <v>0.667506</v>
       </c>
       <c r="H6">
-        <v>0.562248648442447</v>
+        <v>2.002518</v>
       </c>
       <c r="I6">
-        <v>0.1739589142270932</v>
+        <v>0.1997726652396891</v>
       </c>
       <c r="J6">
-        <v>0.1739589142270932</v>
+        <v>0.1997726652396891</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.39991412827579</v>
+        <v>3.847811666666666</v>
       </c>
       <c r="N6">
-        <v>3.39991412827579</v>
+        <v>11.543435</v>
       </c>
       <c r="O6">
-        <v>0.03555949751607509</v>
+        <v>0.0396810199351781</v>
       </c>
       <c r="P6">
-        <v>0.03555949751607509</v>
+        <v>0.03968101993517809</v>
       </c>
       <c r="Q6">
-        <v>1.911597123443443</v>
+        <v>2.56843737437</v>
       </c>
       <c r="R6">
-        <v>1.911597123443443</v>
+        <v>23.11593636933</v>
       </c>
       <c r="S6">
-        <v>0.006185891578357439</v>
+        <v>0.007927183111879767</v>
       </c>
       <c r="T6">
-        <v>0.006185891578357439</v>
+        <v>0.007927183111879765</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.562248648442447</v>
+        <v>0.667506</v>
       </c>
       <c r="H7">
-        <v>0.562248648442447</v>
+        <v>2.002518</v>
       </c>
       <c r="I7">
-        <v>0.1739589142270932</v>
+        <v>0.1997726652396891</v>
       </c>
       <c r="J7">
-        <v>0.1739589142270932</v>
+        <v>0.1997726652396891</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>57.666760962694</v>
+        <v>57.80210733333333</v>
       </c>
       <c r="N7">
-        <v>57.666760962694</v>
+        <v>173.406322</v>
       </c>
       <c r="O7">
-        <v>0.603133186852852</v>
+        <v>0.5960911739155557</v>
       </c>
       <c r="P7">
-        <v>0.603133186852852</v>
+        <v>0.5960911739155557</v>
       </c>
       <c r="Q7">
-        <v>32.42305841132837</v>
+        <v>38.583253457644</v>
       </c>
       <c r="R7">
-        <v>32.42305841132837</v>
+        <v>347.249281118796</v>
       </c>
       <c r="S7">
-        <v>0.1049203943192486</v>
+        <v>0.1190827225389656</v>
       </c>
       <c r="T7">
-        <v>0.1049203943192486</v>
+        <v>0.1190827225389656</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.562248648442447</v>
+        <v>0.667506</v>
       </c>
       <c r="H8">
-        <v>0.562248648442447</v>
+        <v>2.002518</v>
       </c>
       <c r="I8">
-        <v>0.1739589142270932</v>
+        <v>0.1997726652396891</v>
       </c>
       <c r="J8">
-        <v>0.1739589142270932</v>
+        <v>0.1997726652396891</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.8283288869428</v>
+        <v>6.066157</v>
       </c>
       <c r="N8">
-        <v>5.8283288869428</v>
+        <v>18.198471</v>
       </c>
       <c r="O8">
-        <v>0.06095814151730233</v>
+        <v>0.06255797260873913</v>
       </c>
       <c r="P8">
-        <v>0.06095814151730233</v>
+        <v>0.06255797260873913</v>
       </c>
       <c r="Q8">
-        <v>3.276970039361661</v>
+        <v>4.049196194442001</v>
       </c>
       <c r="R8">
-        <v>3.276970039361661</v>
+        <v>36.44276574997801</v>
       </c>
       <c r="S8">
-        <v>0.0106042121116514</v>
+        <v>0.01249737292003929</v>
       </c>
       <c r="T8">
-        <v>0.0106042121116514</v>
+        <v>0.01249737292003929</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.562248648442447</v>
+        <v>0.667506</v>
       </c>
       <c r="H9">
-        <v>0.562248648442447</v>
+        <v>2.002518</v>
       </c>
       <c r="I9">
-        <v>0.1739589142270932</v>
+        <v>0.1997726652396891</v>
       </c>
       <c r="J9">
-        <v>0.1739589142270932</v>
+        <v>0.1997726652396891</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.7169806047947</v>
+        <v>29.25249166666667</v>
       </c>
       <c r="N9">
-        <v>28.7169806047947</v>
+        <v>87.757475</v>
       </c>
       <c r="O9">
-        <v>0.3003491741137705</v>
+        <v>0.3016698335405271</v>
       </c>
       <c r="P9">
-        <v>0.3003491741137705</v>
+        <v>0.301669833540527</v>
       </c>
       <c r="Q9">
-        <v>16.14608353239379</v>
+        <v>19.52621370245</v>
       </c>
       <c r="R9">
-        <v>16.14608353239379</v>
+        <v>175.73592332205</v>
       </c>
       <c r="S9">
-        <v>0.05224841621783569</v>
+        <v>0.06026538666880446</v>
       </c>
       <c r="T9">
-        <v>0.05224841621783569</v>
+        <v>0.06026538666880445</v>
       </c>
     </row>
   </sheetData>
